--- a/Maschinelles_Lernen/PythonClassifierApplication_Motor/PythonClassifierApplication/Ergebnisse_SVM_Motor.xlsx
+++ b/Maschinelles_Lernen/PythonClassifierApplication_Motor/PythonClassifierApplication/Ergebnisse_SVM_Motor.xlsx
@@ -24,20 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>lineare SVM</t>
   </si>
   <si>
-    <t>rbf SVM</t>
-  </si>
-  <si>
     <t>C-Parameter</t>
   </si>
   <si>
-    <t>Mean Accuracy</t>
-  </si>
-  <si>
     <t>TPR</t>
   </si>
   <si>
@@ -54,6 +48,9 @@
   </si>
   <si>
     <t>Total Samples</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -63,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +68,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,11 +99,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -101,6 +121,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BCC99-EC25-41F5-B124-71E260E06872}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,116 +458,99 @@
     <col min="7" max="10" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.53652690000000003</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.75453139999999996</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.67832409999999999</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.46347319999999997</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <f>D4+E4</f>
-        <v>420813</v>
-      </c>
-      <c r="D4">
-        <v>210406</v>
-      </c>
-      <c r="E4">
-        <v>210407</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="2">
-        <v>0.53690700000000002</v>
+        <v>0.53652690000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>0.75206879999999998</v>
+        <v>0.75453139999999996</v>
       </c>
       <c r="I4" s="2">
-        <v>0.6740524</v>
+        <v>0.67832409999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>0.46309299999999998</v>
+        <v>0.46347319999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>C5+D5</f>
+        <v>420813</v>
+      </c>
       <c r="C5">
-        <f>D5+E5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.53070479999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.65746780000000005</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.59533849999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.46929520000000002</v>
+        <v>210406</v>
+      </c>
+      <c r="D5">
+        <v>210407</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.53690700000000002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.75206879999999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.6740524</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.46309299999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <f>D6+E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f>D12+E12</f>
-        <v>0</v>
+      <c r="F6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.53070479999999998</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.65746780000000005</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.59533849999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.46929520000000002</v>
       </c>
     </row>
   </sheetData>
